--- a/result_statistics.xlsx
+++ b/result_statistics.xlsx
@@ -413,22 +413,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0248598278279838</v>
+        <v>0.02071649733913885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008449933738696604</v>
+        <v>0.007683513546349168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3900027454210299</v>
+        <v>0.3735812370883461</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0254183800623053</v>
+        <v>0.02731847826086957</v>
       </c>
       <c r="F2" t="n">
-        <v>48.87216203298016</v>
+        <v>49.65528177604294</v>
       </c>
       <c r="G2" t="n">
-        <v>30.29779715978978</v>
+        <v>26.66697289848415</v>
       </c>
     </row>
     <row r="3">
@@ -438,22 +438,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02578481759867774</v>
+        <v>0.02161100058513751</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006763969778057611</v>
+        <v>0.005899964858849714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3587498520651702</v>
+        <v>0.3665026362038664</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02341034656966758</v>
+        <v>0.02028525482434439</v>
       </c>
       <c r="F3" t="n">
-        <v>61.8795769569746</v>
+        <v>60.36515151515152</v>
       </c>
       <c r="G3" t="n">
-        <v>34.90134155487043</v>
+        <v>32.14046169748478</v>
       </c>
     </row>
     <row r="4">
@@ -463,22 +463,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02461927597185646</v>
+        <v>0.0218592529296875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006330791995766616</v>
+        <v>0.005868850477456788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3245692869196656</v>
+        <v>0.3013508579773641</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02120593549907688</v>
+        <v>0.02423948767520541</v>
       </c>
       <c r="F4" t="n">
-        <v>59.8041389355289</v>
+        <v>68.20159780302085</v>
       </c>
       <c r="G4" t="n">
-        <v>34.79161305147059</v>
+        <v>29.1213407821229</v>
       </c>
     </row>
     <row r="5">
@@ -488,22 +488,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02604869657531553</v>
+        <v>0.02393359739049394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006714110526523993</v>
+        <v>0.005522134203168686</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4799738679355669</v>
+        <v>0.4703449079468656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01807344255861866</v>
+        <v>0.01873566433566434</v>
       </c>
       <c r="F5" t="n">
-        <v>50.19601566693839</v>
+        <v>52.81617993405558</v>
       </c>
       <c r="G5" t="n">
-        <v>23.05950337567227</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02496438140267928</v>
+        <v>0.021953914826879</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005126215105292892</v>
+        <v>0.005006032090722645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3885461781575559</v>
+        <v>0.4633775633293125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02457607573485011</v>
+        <v>0.02550970932336268</v>
       </c>
       <c r="F6" t="n">
-        <v>45.40756601018273</v>
+        <v>43.09828904259192</v>
       </c>
       <c r="G6" t="n">
-        <v>28.56686858797854</v>
+        <v>27.9282214600686</v>
       </c>
     </row>
     <row r="7">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02686864966019896</v>
+        <v>0.02456227384148477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006442883584997567</v>
+        <v>0.00617935603859119</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3532071647143665</v>
+        <v>0.3742996629082878</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0232783901363663</v>
+        <v>0.02373948408087381</v>
       </c>
       <c r="F7" t="n">
-        <v>46.86177939625495</v>
+        <v>52.78119136960601</v>
       </c>
       <c r="G7" t="n">
-        <v>21.6219078348639</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02492115548332172</v>
+        <v>0.02346304675716441</v>
       </c>
       <c r="C8" t="n">
         <v>0.004481204819277109</v>
@@ -572,13 +572,13 @@
         <v>0.5174981923355026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02280259301671099</v>
+        <v>0.02364442645698427</v>
       </c>
       <c r="F8" t="n">
-        <v>45.58111201799614</v>
+        <v>45.5290819901892</v>
       </c>
       <c r="G8" t="n">
-        <v>27.8994746895893</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -588,22 +588,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02460899000236165</v>
+        <v>0.02374515824279641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006493091826477718</v>
+        <v>0.006384813084112151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3489048219350772</v>
+        <v>0.5448651264061932</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02461886932998784</v>
+        <v>0.0306967923202997</v>
       </c>
       <c r="F9" t="n">
-        <v>50.55075206894469</v>
+        <v>58.44301100721979</v>
       </c>
       <c r="G9" t="n">
-        <v>27.20935738444194</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -613,22 +613,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03257953757454481</v>
+        <v>0.02976194418164617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007480758330890258</v>
+        <v>0.007081596815734021</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3232662805259862</v>
+        <v>0.3295715289159447</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01646245817271002</v>
+        <v>0.01650216500877707</v>
       </c>
       <c r="F10" t="n">
-        <v>50.15183225001509</v>
+        <v>48.04405701496054</v>
       </c>
       <c r="G10" t="n">
-        <v>24.08753285338818</v>
+        <v>31.71603260869565</v>
       </c>
     </row>
     <row r="11">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03066044498137522</v>
+        <v>0.02986275666745339</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005655141646219051</v>
+        <v>0.004996802463287542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5191913670229996</v>
+        <v>0.4391806597594379</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01900461903121898</v>
+        <v>0.01668195283801398</v>
       </c>
       <c r="F11" t="n">
-        <v>34.50755068266446</v>
+        <v>36.15805834528933</v>
       </c>
       <c r="G11" t="n">
-        <v>19.84568384772051</v>
+        <v>17.52908917501192</v>
       </c>
     </row>
     <row r="12">
@@ -663,22 +663,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02459194313721662</v>
+        <v>0.02360009783539196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006509224005966168</v>
+        <v>0.006590170038475861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3080571596359009</v>
+        <v>0.3315051181599898</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01755762711864407</v>
+        <v>0.01634556574923548</v>
       </c>
       <c r="F12" t="n">
-        <v>53.68908959826972</v>
+        <v>54.69308374863255</v>
       </c>
       <c r="G12" t="n">
-        <v>28.21150648486864</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -688,22 +688,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02741259609698404</v>
+        <v>0.0261285664376383</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005000716917255801</v>
+        <v>0.00428930817610063</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4060282977273638</v>
+        <v>0.5162723322066634</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02279373481601454</v>
+        <v>0.02243974358974359</v>
       </c>
       <c r="F13" t="n">
-        <v>42.94895333049628</v>
+        <v>50.51042873696408</v>
       </c>
       <c r="G13" t="n">
-        <v>24.99253183153771</v>
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03281879746339936</v>
+        <v>0.02941774362556759</v>
       </c>
       <c r="C14" t="n">
         <v>0.004916828793774319</v>
@@ -722,13 +722,13 @@
         <v>0.4175635276532138</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01620234185628274</v>
+        <v>0.01651728955640937</v>
       </c>
       <c r="F14" t="n">
-        <v>33.85799307678293</v>
+        <v>32.49953271028038</v>
       </c>
       <c r="G14" t="n">
-        <v>23.75045471080393</v>
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02650107686885695</v>
+        <v>0.02549322271558776</v>
       </c>
       <c r="C15" t="n">
         <v>0.003986411065275419</v>
@@ -747,13 +747,13 @@
         <v>0.3317340477350219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02004792644757434</v>
+        <v>0.01999497604860381</v>
       </c>
       <c r="F15" t="n">
-        <v>50.85315959086451</v>
+        <v>53.31873967429785</v>
       </c>
       <c r="G15" t="n">
-        <v>27.73827313072299</v>
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -763,22 +763,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03195045045045046</v>
+        <v>0.03009928829774822</v>
       </c>
       <c r="C16" t="n">
-        <v>0.007291776096585788</v>
+        <v>0.005379995326010751</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3782202460236621</v>
+        <v>0.3150726321905869</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01418220280884571</v>
+        <v>0.01975302044609665</v>
       </c>
       <c r="F16" t="n">
-        <v>55.4526368258399</v>
+        <v>55.71974373907979</v>
       </c>
       <c r="G16" t="n">
-        <v>32.68584758942458</v>
+        <v>29.7154452690167</v>
       </c>
     </row>
     <row r="17">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03149133511374491</v>
+        <v>0.03382575757575759</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00509125297352104</v>
+        <v>0.003870469330855019</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3189042486722899</v>
+        <v>0.3082481412639405</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01408199890642087</v>
+        <v>0.01086445993031359</v>
       </c>
       <c r="F17" t="n">
-        <v>44.28275585015567</v>
+        <v>46.43489059727972</v>
       </c>
       <c r="G17" t="n">
-        <v>20.16947966768693</v>
+        <v/>
       </c>
     </row>
     <row r="18">
@@ -813,22 +813,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.03245113901239888</v>
+        <v>0.0306348715509039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006453048648860806</v>
+        <v>0.006144502493469485</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6003678484777334</v>
+        <v>0.5241710603397775</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02300096341007845</v>
+        <v>0.02186636053220299</v>
       </c>
       <c r="F18" t="n">
-        <v>35.74498699219532</v>
+        <v>34.0070126227209</v>
       </c>
       <c r="G18" t="n">
-        <v>21.24404552144441</v>
+        <v>19.15656925635543</v>
       </c>
     </row>
     <row r="19">
@@ -838,22 +838,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03043414351851852</v>
+        <v/>
       </c>
       <c r="C19" t="n">
-        <v>0.006483566989449343</v>
+        <v/>
       </c>
       <c r="D19" t="n">
-        <v>0.413828680423097</v>
+        <v/>
       </c>
       <c r="E19" t="n">
-        <v>0.01803585784101096</v>
+        <v/>
       </c>
       <c r="F19" t="n">
-        <v>43.4402893244095</v>
+        <v/>
       </c>
       <c r="G19" t="n">
-        <v>21.79940394314535</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03291473197069033</v>
+        <v/>
       </c>
       <c r="C20" t="n">
-        <v>0.006751473136915079</v>
+        <v/>
       </c>
       <c r="D20" t="n">
-        <v>0.3964726836256631</v>
+        <v/>
       </c>
       <c r="E20" t="n">
-        <v>0.02197917709095108</v>
+        <v/>
       </c>
       <c r="F20" t="n">
-        <v>37.30961011760915</v>
+        <v/>
       </c>
       <c r="G20" t="n">
-        <v>24.17578263437684</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01596779062928838</v>
+        <v>0.01385187367428706</v>
       </c>
       <c r="C21" t="n">
-        <v>0.005923629100832526</v>
+        <v>0.005990327907525361</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7626864786895612</v>
+        <v>0.7748173462172991</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03852308211831076</v>
+        <v>0.0503814518029696</v>
       </c>
       <c r="F21" t="n">
-        <v>54.86681175190424</v>
+        <v>54.04838897289752</v>
       </c>
       <c r="G21" t="n">
-        <v>27.51588722309241</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -913,22 +913,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01782583380551377</v>
+        <v>0.01634587983851817</v>
       </c>
       <c r="C22" t="n">
-        <v>0.007036615229136707</v>
+        <v>0.007450694197223212</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4986585010207058</v>
+        <v>0.5270212513356287</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03174426114013974</v>
+        <v>0.034655871886121</v>
       </c>
       <c r="F22" t="n">
-        <v>52.85738931573351</v>
+        <v>57.05012224938875</v>
       </c>
       <c r="G22" t="n">
-        <v>29.95988538681948</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1014,16 +1014,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.153</v>
+        <v>0.101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312</v>
+        <v>0.105</v>
       </c>
       <c r="D3" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.191</v>
+        <v>0.114</v>
       </c>
       <c r="F3" t="n">
         <v>1998</v>
@@ -1039,22 +1039,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.11</v>
+        <v>0.099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.078</v>
+        <v>0.064</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.119</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>1900</v>
       </c>
       <c r="G4" t="n">
-        <v>1840</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -1064,23 +1064,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.125</v>
+        <v>0.108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.089</v>
+        <v>0.031</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.082</v>
       </c>
       <c r="F5" t="n">
         <v>2462</v>
       </c>
-      <c r="G5" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1089,10 +1086,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="D6" t="n">
         <v>2.4</v>
@@ -1117,20 +1114,17 @@
         <v>0.119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.103</v>
+        <v>0.094</v>
       </c>
       <c r="F7" t="n">
         <v>1797</v>
       </c>
-      <c r="G7" t="n">
-        <v>101</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1139,7 +1133,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122</v>
+        <v>0.107</v>
       </c>
       <c r="C8" t="n">
         <v>0.042</v>
@@ -1148,14 +1142,11 @@
         <v>1.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.173</v>
+        <v>0.097</v>
       </c>
       <c r="F8" t="n">
         <v>1650</v>
       </c>
-      <c r="G8" t="n">
-        <v>124</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1164,7 +1155,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.121</v>
+        <v>0.107</v>
       </c>
       <c r="C9" t="n">
         <v>0.068</v>
@@ -1178,9 +1169,6 @@
       <c r="F9" t="n">
         <v>1999</v>
       </c>
-      <c r="G9" t="n">
-        <v>144</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1192,19 +1180,19 @@
         <v>0.173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="D10" t="n">
         <v>1.7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.094</v>
+        <v>0.078</v>
       </c>
       <c r="F10" t="n">
         <v>1999</v>
       </c>
       <c r="G10" t="n">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1214,16 +1202,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.142</v>
+        <v>0.122</v>
       </c>
       <c r="C11" t="n">
         <v>0.08799999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.093</v>
+        <v>0.089</v>
       </c>
       <c r="F11" t="n">
         <v>2510</v>
@@ -1239,23 +1227,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.123</v>
+        <v>0.11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.179</v>
+        <v>0.126</v>
       </c>
       <c r="D12" t="n">
         <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="F12" t="n">
         <v>1993</v>
       </c>
-      <c r="G12" t="n">
-        <v>131</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1264,23 +1249,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.126</v>
+        <v>0.118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.042</v>
+        <v>0.034</v>
       </c>
       <c r="D13" t="n">
         <v>2.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.103</v>
+        <v>0.101</v>
       </c>
       <c r="F13" t="n">
         <v>1000</v>
       </c>
-      <c r="G13" t="n">
-        <v>114</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1289,7 +1271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.16</v>
+        <v>0.125</v>
       </c>
       <c r="C14" t="n">
         <v>0.042</v>
@@ -1298,14 +1280,11 @@
         <v>1.7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="F14" t="n">
         <v>1997</v>
       </c>
-      <c r="G14" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1314,7 +1293,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.129</v>
+        <v>0.099</v>
       </c>
       <c r="C15" t="n">
         <v>0.045</v>
@@ -1323,14 +1302,11 @@
         <v>1.7</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>999</v>
       </c>
-      <c r="G15" t="n">
-        <v>163</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1339,10 +1315,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.144</v>
+        <v>0.134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="D16" t="n">
         <v>2</v>
@@ -1364,13 +1340,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="C17" t="n">
         <v>0.051</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="E17" t="n">
         <v>0.076</v>
@@ -1378,9 +1354,6 @@
       <c r="F17" t="n">
         <v>2057</v>
       </c>
-      <c r="G17" t="n">
-        <v>111</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1389,16 +1362,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.143</v>
+        <v>0.123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="D18" t="n">
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.187</v>
+        <v>0.091</v>
       </c>
       <c r="F18" t="n">
         <v>2462</v>
@@ -1414,22 +1387,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.116</v>
+        <v/>
       </c>
       <c r="C19" t="n">
-        <v>0.057</v>
+        <v/>
       </c>
       <c r="D19" t="n">
-        <v>1.3</v>
+        <v/>
       </c>
       <c r="E19" t="n">
-        <v>0.117</v>
+        <v/>
       </c>
       <c r="F19" t="n">
-        <v>321</v>
+        <v/>
       </c>
       <c r="G19" t="n">
-        <v>98</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -1439,22 +1412,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.143</v>
+        <v/>
       </c>
       <c r="C20" t="n">
-        <v>0.037</v>
+        <v/>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v/>
       </c>
       <c r="E20" t="n">
-        <v>0.102</v>
+        <v/>
       </c>
       <c r="F20" t="n">
-        <v>313</v>
+        <v/>
       </c>
       <c r="G20" t="n">
-        <v>135</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -1464,23 +1437,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.101</v>
+        <v>0.068</v>
       </c>
       <c r="C21" t="n">
         <v>0.039</v>
       </c>
       <c r="D21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.247</v>
+        <v>0.193</v>
       </c>
       <c r="F21" t="n">
         <v>1996</v>
       </c>
-      <c r="G21" t="n">
-        <v>122</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1489,7 +1459,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.103</v>
+        <v>0.079</v>
       </c>
       <c r="C22" t="n">
         <v>0.081</v>
@@ -1502,9 +1472,6 @@
       </c>
       <c r="F22" t="n">
         <v>996</v>
-      </c>
-      <c r="G22" t="n">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1574,13 +1541,13 @@
         <v>0.1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1627,7 +1594,7 @@
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -1654,9 +1621,6 @@
       <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1674,7 +1638,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -1702,10 +1666,7 @@
         <v>0.001</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1727,10 +1688,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1749,14 +1707,11 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1768,7 +1723,7 @@
         <v>0.001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
@@ -1777,7 +1732,7 @@
         <v>0.001</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -1829,9 +1784,6 @@
       <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1852,10 +1804,7 @@
         <v>0.001</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1879,9 +1828,6 @@
       <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1890,7 +1836,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="C15" t="n">
         <v>0.001</v>
@@ -1902,10 +1848,7 @@
         <v>0.001</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1924,13 +1867,13 @@
         <v>0.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1952,10 +1895,7 @@
         <v>0.001</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1965,7 +1905,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="C18" t="n">
         <v>0.001</v>
@@ -1990,22 +1930,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="C19" t="n">
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v/>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="20">
@@ -2015,22 +1955,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="C20" t="n">
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="D20" t="n">
-        <v>0.1</v>
+        <v/>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -2049,12 +1989,9 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2071,15 +2008,12 @@
         <v>0.001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
         <v>0.001</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" t="n">
         <v>2</v>
       </c>
     </row>
